--- a/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD56727-DCCB-43DA-879D-BE3E66805B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47567F89-DAE8-4EC3-B3E2-8403791CA70A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
   <si>
     <t>int</t>
   </si>
@@ -53,106 +53,375 @@
     <t>id</t>
   </si>
   <si>
-    <t>功能名称</t>
-  </si>
-  <si>
     <t>zh_cn_name</t>
   </si>
   <si>
-    <t>英雄1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>得分类型</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>背景类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>正面组件类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>资源</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tring</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>scoreType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>backgroundType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>frontType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>sprite</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoreTypeKey</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础英雄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹英雄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪管英雄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙英雄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero0000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroBomb0000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroGun0000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroKey0000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trap</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪1</t>
+  </si>
+  <si>
+    <t>小怪2</t>
+  </si>
+  <si>
+    <t>小怪3</t>
+  </si>
+  <si>
+    <t>小怪4</t>
+  </si>
+  <si>
+    <t>小怪5</t>
+  </si>
+  <si>
+    <t>小怪6</t>
+  </si>
+  <si>
+    <t>小怪7</t>
+  </si>
+  <si>
+    <t>小怪8</t>
+  </si>
+  <si>
+    <t>小怪9</t>
+  </si>
+  <si>
+    <t>enemy_20000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_40000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_50000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_70000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_80000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_90000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boos0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_20000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boos1</t>
+  </si>
+  <si>
+    <t>Boos2</t>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加农炮炮管</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒药</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horseshoe</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>马蹄铁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiplier</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skull</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin0000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱袋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinBag0000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>health_10000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色血瓶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色血瓶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>health_20000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>木盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shields0000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shields0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shields0002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shields0003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shields0004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍数x2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍数x3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiplier20000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiplier30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison0000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseshoeBig0000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightning0000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>木铁盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重铁盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金盾</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +489,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +510,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -258,20 +558,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -283,6 +595,47 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -558,137 +911,1663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="24.5" style="1" customWidth="1"/>
-    <col min="6" max="8" width="21.25" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" style="2" customWidth="1"/>
+    <col min="7" max="40" width="9" style="11"/>
+    <col min="41" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>101</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>102</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+    </row>
+    <row r="7" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>103</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+    </row>
+    <row r="8" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>104</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>201</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>301</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="18">
+        <v>2</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+    </row>
+    <row r="11" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>302</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="18">
+        <v>3</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+    </row>
+    <row r="12" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18">
+        <v>303</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="18">
+        <v>4</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+    </row>
+    <row r="13" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
+        <v>304</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="18">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="F13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+    </row>
+    <row r="14" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>305</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="18">
+        <v>6</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+    </row>
+    <row r="15" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
+        <v>306</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="18">
+        <v>7</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+    </row>
+    <row r="16" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18">
+        <v>307</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="18">
+        <v>8</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+    </row>
+    <row r="17" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>308</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="18">
+        <v>9</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+    </row>
+    <row r="18" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
+        <v>309</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="18">
+        <v>10</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="21">
+        <v>401</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+    </row>
+    <row r="20" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21">
+        <v>402</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="21">
+        <v>2</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+    </row>
+    <row r="21" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21">
+        <v>403</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="F21" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+    </row>
+    <row r="22" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>501</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+    </row>
+    <row r="23" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>502</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+    </row>
+    <row r="24" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24">
+        <v>601</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+    </row>
+    <row r="25" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="24">
+        <v>602</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="24">
+        <v>2</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+    </row>
+    <row r="26" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
+        <v>701</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+    </row>
+    <row r="27" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
+        <v>702</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+    </row>
+    <row r="28" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
+        <v>703</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="12">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>101</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="F28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+    </row>
+    <row r="29" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12">
+        <v>704</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="12">
+        <v>4</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+    </row>
+    <row r="30" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12">
+        <v>705</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="12">
+        <v>5</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>801</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="15">
         <v>1</v>
       </c>
+      <c r="F31" s="27"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A32" s="15">
+        <v>901</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="15">
+        <v>1001</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="15">
+        <v>1101</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="15">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="15">
+        <v>1201</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="15">
+        <v>1</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
+        <v>1301</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="15">
+        <v>1401</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="15">
+        <v>1501</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="15">
+        <v>1</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="15">
+        <v>1502</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="15">
+        <v>2</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="15">
+        <v>1601</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="15">
+        <v>1</v>
+      </c>
+      <c r="F40" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47567F89-DAE8-4EC3-B3E2-8403791CA70A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DF5693-FD5F-49BC-827E-7E267A156803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
   <si>
     <t>int</t>
   </si>
@@ -422,6 +422,10 @@
   </si>
   <si>
     <t>金盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -911,27 +915,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" style="2" customWidth="1"/>
-    <col min="7" max="40" width="9" style="11"/>
-    <col min="41" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1" customWidth="1"/>
+    <col min="8" max="41" width="9" style="11"/>
+    <col min="42" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -950,8 +955,11 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -970,8 +978,11 @@
       <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1001,11 @@
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G3" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1010,8 +1024,11 @@
       <c r="F4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>101</v>
       </c>
@@ -1030,7 +1047,9 @@
       <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1064,8 +1083,9 @@
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
-    </row>
-    <row r="6" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO5" s="11"/>
+    </row>
+    <row r="6" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>102</v>
       </c>
@@ -1084,7 +1104,9 @@
       <c r="F6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12">
+        <v>600</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1118,8 +1140,9 @@
       <c r="AL6" s="11"/>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
-    </row>
-    <row r="7" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO6" s="11"/>
+    </row>
+    <row r="7" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>103</v>
       </c>
@@ -1138,7 +1161,9 @@
       <c r="F7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="12">
+        <v>900</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1172,8 +1197,9 @@
       <c r="AL7" s="11"/>
       <c r="AM7" s="11"/>
       <c r="AN7" s="11"/>
-    </row>
-    <row r="8" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO7" s="11"/>
+    </row>
+    <row r="8" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>104</v>
       </c>
@@ -1192,7 +1218,9 @@
       <c r="F8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="12">
+        <v>1300</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -1226,8 +1254,9 @@
       <c r="AL8" s="11"/>
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AO8" s="11"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>201</v>
       </c>
@@ -1244,8 +1273,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>301</v>
       </c>
@@ -1264,7 +1296,9 @@
       <c r="F10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -1298,8 +1332,9 @@
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
-    </row>
-    <row r="11" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO10" s="11"/>
+    </row>
+    <row r="11" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>302</v>
       </c>
@@ -1318,7 +1353,9 @@
       <c r="F11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -1352,8 +1389,9 @@
       <c r="AL11" s="11"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
-    </row>
-    <row r="12" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO11" s="11"/>
+    </row>
+    <row r="12" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>303</v>
       </c>
@@ -1372,7 +1410,9 @@
       <c r="F12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -1406,8 +1446,9 @@
       <c r="AL12" s="11"/>
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
-    </row>
-    <row r="13" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO12" s="11"/>
+    </row>
+    <row r="13" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>304</v>
       </c>
@@ -1426,7 +1467,9 @@
       <c r="F13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -1460,8 +1503,9 @@
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
-    </row>
-    <row r="14" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO13" s="11"/>
+    </row>
+    <row r="14" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>305</v>
       </c>
@@ -1480,7 +1524,9 @@
       <c r="F14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -1514,8 +1560,9 @@
       <c r="AL14" s="11"/>
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
-    </row>
-    <row r="15" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO14" s="11"/>
+    </row>
+    <row r="15" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>306</v>
       </c>
@@ -1534,7 +1581,9 @@
       <c r="F15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -1568,8 +1617,9 @@
       <c r="AL15" s="11"/>
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
-    </row>
-    <row r="16" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO15" s="11"/>
+    </row>
+    <row r="16" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>307</v>
       </c>
@@ -1588,7 +1638,9 @@
       <c r="F16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -1622,8 +1674,9 @@
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
-    </row>
-    <row r="17" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO16" s="11"/>
+    </row>
+    <row r="17" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>308</v>
       </c>
@@ -1642,7 +1695,9 @@
       <c r="F17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -1676,8 +1731,9 @@
       <c r="AL17" s="11"/>
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
-    </row>
-    <row r="18" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO17" s="11"/>
+    </row>
+    <row r="18" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>309</v>
       </c>
@@ -1696,7 +1752,9 @@
       <c r="F18" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -1730,8 +1788,9 @@
       <c r="AL18" s="11"/>
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
-    </row>
-    <row r="19" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO18" s="11"/>
+    </row>
+    <row r="19" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>401</v>
       </c>
@@ -1750,7 +1809,9 @@
       <c r="F19" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="21">
+        <v>0</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -1784,8 +1845,9 @@
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
-    </row>
-    <row r="20" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO19" s="11"/>
+    </row>
+    <row r="20" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>402</v>
       </c>
@@ -1804,7 +1866,9 @@
       <c r="F20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="21">
+        <v>0</v>
+      </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -1838,8 +1902,9 @@
       <c r="AL20" s="11"/>
       <c r="AM20" s="11"/>
       <c r="AN20" s="11"/>
-    </row>
-    <row r="21" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO20" s="11"/>
+    </row>
+    <row r="21" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>403</v>
       </c>
@@ -1858,7 +1923,9 @@
       <c r="F21" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -1892,8 +1959,9 @@
       <c r="AL21" s="11"/>
       <c r="AM21" s="11"/>
       <c r="AN21" s="11"/>
-    </row>
-    <row r="22" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO21" s="11"/>
+    </row>
+    <row r="22" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>501</v>
       </c>
@@ -1912,7 +1980,9 @@
       <c r="F22" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -1946,8 +2016,9 @@
       <c r="AL22" s="11"/>
       <c r="AM22" s="11"/>
       <c r="AN22" s="11"/>
-    </row>
-    <row r="23" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO22" s="11"/>
+    </row>
+    <row r="23" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>502</v>
       </c>
@@ -1966,7 +2037,9 @@
       <c r="F23" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -2000,8 +2073,9 @@
       <c r="AL23" s="11"/>
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
-    </row>
-    <row r="24" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO23" s="11"/>
+    </row>
+    <row r="24" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>601</v>
       </c>
@@ -2020,7 +2094,9 @@
       <c r="F24" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="24">
+        <v>0</v>
+      </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -2054,8 +2130,9 @@
       <c r="AL24" s="11"/>
       <c r="AM24" s="11"/>
       <c r="AN24" s="11"/>
-    </row>
-    <row r="25" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO24" s="11"/>
+    </row>
+    <row r="25" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>602</v>
       </c>
@@ -2074,7 +2151,9 @@
       <c r="F25" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="11"/>
+      <c r="G25" s="24">
+        <v>0</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -2108,8 +2187,9 @@
       <c r="AL25" s="11"/>
       <c r="AM25" s="11"/>
       <c r="AN25" s="11"/>
-    </row>
-    <row r="26" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO25" s="11"/>
+    </row>
+    <row r="26" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>701</v>
       </c>
@@ -2128,7 +2208,9 @@
       <c r="F26" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -2162,8 +2244,9 @@
       <c r="AL26" s="11"/>
       <c r="AM26" s="11"/>
       <c r="AN26" s="11"/>
-    </row>
-    <row r="27" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO26" s="11"/>
+    </row>
+    <row r="27" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>702</v>
       </c>
@@ -2182,7 +2265,9 @@
       <c r="F27" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -2216,8 +2301,9 @@
       <c r="AL27" s="11"/>
       <c r="AM27" s="11"/>
       <c r="AN27" s="11"/>
-    </row>
-    <row r="28" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO27" s="11"/>
+    </row>
+    <row r="28" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>703</v>
       </c>
@@ -2236,7 +2322,9 @@
       <c r="F28" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="11"/>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -2270,8 +2358,9 @@
       <c r="AL28" s="11"/>
       <c r="AM28" s="11"/>
       <c r="AN28" s="11"/>
-    </row>
-    <row r="29" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO28" s="11"/>
+    </row>
+    <row r="29" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>704</v>
       </c>
@@ -2290,7 +2379,9 @@
       <c r="F29" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="11"/>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -2324,8 +2415,9 @@
       <c r="AL29" s="11"/>
       <c r="AM29" s="11"/>
       <c r="AN29" s="11"/>
-    </row>
-    <row r="30" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AO29" s="11"/>
+    </row>
+    <row r="30" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>705</v>
       </c>
@@ -2344,7 +2436,9 @@
       <c r="F30" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="11"/>
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -2378,8 +2472,9 @@
       <c r="AL30" s="11"/>
       <c r="AM30" s="11"/>
       <c r="AN30" s="11"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AO30" s="11"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>801</v>
       </c>
@@ -2396,8 +2491,11 @@
         <v>1</v>
       </c>
       <c r="F31" s="27"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>901</v>
       </c>
@@ -2414,8 +2512,11 @@
         <v>1</v>
       </c>
       <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>1001</v>
       </c>
@@ -2432,8 +2533,11 @@
         <v>1</v>
       </c>
       <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>1101</v>
       </c>
@@ -2450,8 +2554,11 @@
         <v>1</v>
       </c>
       <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>1201</v>
       </c>
@@ -2470,8 +2577,11 @@
       <c r="F35" s="27" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>1301</v>
       </c>
@@ -2490,8 +2600,11 @@
       <c r="F36" s="27" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>1401</v>
       </c>
@@ -2510,8 +2623,11 @@
       <c r="F37" s="27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>1501</v>
       </c>
@@ -2530,8 +2646,11 @@
       <c r="F38" s="27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>1502</v>
       </c>
@@ -2550,8 +2669,11 @@
       <c r="F39" s="27" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>1601</v>
       </c>
@@ -2568,6 +2690,9 @@
         <v>1</v>
       </c>
       <c r="F40" s="17"/>
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DF5693-FD5F-49BC-827E-7E267A156803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14982B4A-2E5B-47CE-AE04-84437BC088C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
   <si>
     <t>int</t>
   </si>
@@ -426,6 +426,10 @@
   </si>
   <si>
     <t>coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -921,22 +925,22 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="1" customWidth="1"/>
     <col min="8" max="41" width="9" style="11"/>
     <col min="42" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -959,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -979,10 +983,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" ht="20.25" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1028,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>101</v>
       </c>
@@ -1085,7 +1089,7 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>102</v>
       </c>
@@ -1142,7 +1146,7 @@
       <c r="AN6" s="11"/>
       <c r="AO6" s="11"/>
     </row>
-    <row r="7" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>103</v>
       </c>
@@ -1199,7 +1203,7 @@
       <c r="AN7" s="11"/>
       <c r="AO7" s="11"/>
     </row>
-    <row r="8" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>104</v>
       </c>
@@ -1256,7 +1260,7 @@
       <c r="AN8" s="11"/>
       <c r="AO8" s="11"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>201</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
         <v>301</v>
       </c>
@@ -1334,7 +1338,7 @@
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
     </row>
-    <row r="11" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>302</v>
       </c>
@@ -1391,7 +1395,7 @@
       <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
     </row>
-    <row r="12" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
         <v>303</v>
       </c>
@@ -1448,7 +1452,7 @@
       <c r="AN12" s="11"/>
       <c r="AO12" s="11"/>
     </row>
-    <row r="13" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18">
         <v>304</v>
       </c>
@@ -1505,7 +1509,7 @@
       <c r="AN13" s="11"/>
       <c r="AO13" s="11"/>
     </row>
-    <row r="14" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18">
         <v>305</v>
       </c>
@@ -1562,7 +1566,7 @@
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
     </row>
-    <row r="15" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18">
         <v>306</v>
       </c>
@@ -1619,7 +1623,7 @@
       <c r="AN15" s="11"/>
       <c r="AO15" s="11"/>
     </row>
-    <row r="16" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18">
         <v>307</v>
       </c>
@@ -1676,7 +1680,7 @@
       <c r="AN16" s="11"/>
       <c r="AO16" s="11"/>
     </row>
-    <row r="17" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
         <v>308</v>
       </c>
@@ -1733,7 +1737,7 @@
       <c r="AN17" s="11"/>
       <c r="AO17" s="11"/>
     </row>
-    <row r="18" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
         <v>309</v>
       </c>
@@ -1790,7 +1794,7 @@
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
     </row>
-    <row r="19" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21">
         <v>401</v>
       </c>
@@ -1847,7 +1851,7 @@
       <c r="AN19" s="11"/>
       <c r="AO19" s="11"/>
     </row>
-    <row r="20" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
         <v>402</v>
       </c>
@@ -1904,7 +1908,7 @@
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
     </row>
-    <row r="21" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
         <v>403</v>
       </c>
@@ -1961,7 +1965,7 @@
       <c r="AN21" s="11"/>
       <c r="AO21" s="11"/>
     </row>
-    <row r="22" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>501</v>
       </c>
@@ -2018,7 +2022,7 @@
       <c r="AN22" s="11"/>
       <c r="AO22" s="11"/>
     </row>
-    <row r="23" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>502</v>
       </c>
@@ -2075,7 +2079,7 @@
       <c r="AN23" s="11"/>
       <c r="AO23" s="11"/>
     </row>
-    <row r="24" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24">
         <v>601</v>
       </c>
@@ -2132,7 +2136,7 @@
       <c r="AN24" s="11"/>
       <c r="AO24" s="11"/>
     </row>
-    <row r="25" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="24">
         <v>602</v>
       </c>
@@ -2189,7 +2193,7 @@
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
     </row>
-    <row r="26" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>701</v>
       </c>
@@ -2246,7 +2250,7 @@
       <c r="AN26" s="11"/>
       <c r="AO26" s="11"/>
     </row>
-    <row r="27" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>702</v>
       </c>
@@ -2303,7 +2307,7 @@
       <c r="AN27" s="11"/>
       <c r="AO27" s="11"/>
     </row>
-    <row r="28" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>703</v>
       </c>
@@ -2360,7 +2364,7 @@
       <c r="AN28" s="11"/>
       <c r="AO28" s="11"/>
     </row>
-    <row r="29" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>704</v>
       </c>
@@ -2417,7 +2421,7 @@
       <c r="AN29" s="11"/>
       <c r="AO29" s="11"/>
     </row>
-    <row r="30" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>705</v>
       </c>
@@ -2474,7 +2478,7 @@
       <c r="AN30" s="11"/>
       <c r="AO30" s="11"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <v>801</v>
       </c>
@@ -2495,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>901</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <v>1001</v>
       </c>
@@ -2537,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <v>1101</v>
       </c>
@@ -2558,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <v>1201</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>1301</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <v>1401</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <v>1501</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <v>1502</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <v>1601</v>
       </c>

--- a/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14982B4A-2E5B-47CE-AE04-84437BC088C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85A59E1-EE5B-46FC-8FDB-2EE26669F9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
   <si>
     <t>int</t>
   </si>
@@ -430,6 +430,38 @@
   </si>
   <si>
     <t>价格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍数好牌x2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍数坏牌x3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加分好牌+1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加分坏牌+1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiplierPositive</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiplierNegative</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddPositive</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddNegative</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,6 +676,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -919,13 +954,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2698,6 +2733,98 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="15">
+        <v>1701</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="15">
+        <v>1801</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="15">
+        <v>1</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="15">
+        <v>1901</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="15">
+        <v>1</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="15">
+        <v>2001</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="15">
+        <v>1</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85A59E1-EE5B-46FC-8FDB-2EE26669F9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6B3DCF-C93B-4521-8DE0-0C3B12D11861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="112">
   <si>
     <t>int</t>
   </si>
@@ -34,6 +34,7 @@
         <sz val="16"/>
         <color theme="0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -44,6 +45,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>tring</t>
@@ -462,6 +464,14 @@
   </si>
   <si>
     <t>AddNegative</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -481,6 +491,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -488,6 +499,7 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -496,6 +508,7 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -503,6 +516,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -617,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,6 +692,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,13 +971,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -970,12 +987,12 @@
     <col min="3" max="4" width="18.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="1" customWidth="1"/>
-    <col min="8" max="41" width="9" style="11"/>
-    <col min="42" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="24.44140625" style="1" customWidth="1"/>
+    <col min="9" max="42" width="9" style="11"/>
+    <col min="43" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -997,8 +1014,11 @@
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H1" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1020,8 +1040,11 @@
       <c r="G2" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H2" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1043,8 +1066,11 @@
       <c r="G3" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H3" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1066,8 +1092,11 @@
       <c r="G4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>101</v>
       </c>
@@ -1089,7 +1118,9 @@
       <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -1123,8 +1154,9 @@
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
-    </row>
-    <row r="6" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP5" s="11"/>
+    </row>
+    <row r="6" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>102</v>
       </c>
@@ -1146,7 +1178,9 @@
       <c r="G6" s="12">
         <v>600</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -1180,8 +1214,9 @@
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="11"/>
-    </row>
-    <row r="7" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP6" s="11"/>
+    </row>
+    <row r="7" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>103</v>
       </c>
@@ -1203,7 +1238,9 @@
       <c r="G7" s="12">
         <v>900</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -1237,8 +1274,9 @@
       <c r="AM7" s="11"/>
       <c r="AN7" s="11"/>
       <c r="AO7" s="11"/>
-    </row>
-    <row r="8" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP7" s="11"/>
+    </row>
+    <row r="8" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>104</v>
       </c>
@@ -1260,7 +1298,9 @@
       <c r="G8" s="12">
         <v>1300</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -1294,8 +1334,9 @@
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
       <c r="AO8" s="11"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP8" s="11"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>201</v>
       </c>
@@ -1315,8 +1356,11 @@
       <c r="G9" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
         <v>301</v>
       </c>
@@ -1338,7 +1382,9 @@
       <c r="G10" s="18">
         <v>0</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -1372,8 +1418,9 @@
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
-    </row>
-    <row r="11" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP10" s="11"/>
+    </row>
+    <row r="11" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>302</v>
       </c>
@@ -1395,7 +1442,9 @@
       <c r="G11" s="18">
         <v>0</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -1429,8 +1478,9 @@
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
-    </row>
-    <row r="12" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP11" s="11"/>
+    </row>
+    <row r="12" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
         <v>303</v>
       </c>
@@ -1452,7 +1502,9 @@
       <c r="G12" s="18">
         <v>0</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -1486,8 +1538,9 @@
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="11"/>
-    </row>
-    <row r="13" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP12" s="11"/>
+    </row>
+    <row r="13" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18">
         <v>304</v>
       </c>
@@ -1509,7 +1562,9 @@
       <c r="G13" s="18">
         <v>0</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="18">
+        <v>2</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -1543,8 +1598,9 @@
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="11"/>
-    </row>
-    <row r="14" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP13" s="11"/>
+    </row>
+    <row r="14" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18">
         <v>305</v>
       </c>
@@ -1566,7 +1622,9 @@
       <c r="G14" s="18">
         <v>0</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="18">
+        <v>2</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -1600,8 +1658,9 @@
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
-    </row>
-    <row r="15" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP14" s="11"/>
+    </row>
+    <row r="15" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18">
         <v>306</v>
       </c>
@@ -1623,7 +1682,9 @@
       <c r="G15" s="18">
         <v>0</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="18">
+        <v>5</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -1657,8 +1718,9 @@
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
       <c r="AO15" s="11"/>
-    </row>
-    <row r="16" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP15" s="11"/>
+    </row>
+    <row r="16" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18">
         <v>307</v>
       </c>
@@ -1680,7 +1742,9 @@
       <c r="G16" s="18">
         <v>0</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="18">
+        <v>5</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -1714,8 +1778,9 @@
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
       <c r="AO16" s="11"/>
-    </row>
-    <row r="17" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP16" s="11"/>
+    </row>
+    <row r="17" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
         <v>308</v>
       </c>
@@ -1737,7 +1802,9 @@
       <c r="G17" s="18">
         <v>0</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="18">
+        <v>5</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -1771,8 +1838,9 @@
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
       <c r="AO17" s="11"/>
-    </row>
-    <row r="18" spans="1:41" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP17" s="11"/>
+    </row>
+    <row r="18" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
         <v>309</v>
       </c>
@@ -1794,7 +1862,9 @@
       <c r="G18" s="18">
         <v>0</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="18">
+        <v>5</v>
+      </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -1828,8 +1898,9 @@
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
-    </row>
-    <row r="19" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP18" s="11"/>
+    </row>
+    <row r="19" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21">
         <v>401</v>
       </c>
@@ -1851,7 +1922,9 @@
       <c r="G19" s="21">
         <v>0</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="21">
+        <v>10</v>
+      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -1885,8 +1958,9 @@
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
       <c r="AO19" s="11"/>
-    </row>
-    <row r="20" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP19" s="11"/>
+    </row>
+    <row r="20" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
         <v>402</v>
       </c>
@@ -1908,7 +1982,9 @@
       <c r="G20" s="21">
         <v>0</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="21">
+        <v>10</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -1942,8 +2018,9 @@
       <c r="AM20" s="11"/>
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
-    </row>
-    <row r="21" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP20" s="11"/>
+    </row>
+    <row r="21" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
         <v>403</v>
       </c>
@@ -1965,7 +2042,9 @@
       <c r="G21" s="21">
         <v>0</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="21">
+        <v>10</v>
+      </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -1999,8 +2078,9 @@
       <c r="AM21" s="11"/>
       <c r="AN21" s="11"/>
       <c r="AO21" s="11"/>
-    </row>
-    <row r="22" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP21" s="11"/>
+    </row>
+    <row r="22" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>501</v>
       </c>
@@ -2022,7 +2102,9 @@
       <c r="G22" s="12">
         <v>0</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -2056,8 +2138,9 @@
       <c r="AM22" s="11"/>
       <c r="AN22" s="11"/>
       <c r="AO22" s="11"/>
-    </row>
-    <row r="23" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP22" s="11"/>
+    </row>
+    <row r="23" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>502</v>
       </c>
@@ -2079,7 +2162,9 @@
       <c r="G23" s="12">
         <v>0</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -2113,8 +2198,9 @@
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
       <c r="AO23" s="11"/>
-    </row>
-    <row r="24" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP23" s="11"/>
+    </row>
+    <row r="24" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24">
         <v>601</v>
       </c>
@@ -2136,7 +2222,9 @@
       <c r="G24" s="24">
         <v>0</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="24">
+        <v>0</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -2170,8 +2258,9 @@
       <c r="AM24" s="11"/>
       <c r="AN24" s="11"/>
       <c r="AO24" s="11"/>
-    </row>
-    <row r="25" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP24" s="11"/>
+    </row>
+    <row r="25" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="24">
         <v>602</v>
       </c>
@@ -2193,7 +2282,9 @@
       <c r="G25" s="24">
         <v>0</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="24">
+        <v>0</v>
+      </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -2227,8 +2318,9 @@
       <c r="AM25" s="11"/>
       <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
-    </row>
-    <row r="26" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP25" s="11"/>
+    </row>
+    <row r="26" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>701</v>
       </c>
@@ -2250,7 +2342,9 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -2284,8 +2378,9 @@
       <c r="AM26" s="11"/>
       <c r="AN26" s="11"/>
       <c r="AO26" s="11"/>
-    </row>
-    <row r="27" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP26" s="11"/>
+    </row>
+    <row r="27" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>702</v>
       </c>
@@ -2307,7 +2402,9 @@
       <c r="G27" s="12">
         <v>0</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
@@ -2341,8 +2438,9 @@
       <c r="AM27" s="11"/>
       <c r="AN27" s="11"/>
       <c r="AO27" s="11"/>
-    </row>
-    <row r="28" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP27" s="11"/>
+    </row>
+    <row r="28" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>703</v>
       </c>
@@ -2364,7 +2462,9 @@
       <c r="G28" s="12">
         <v>0</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -2398,8 +2498,9 @@
       <c r="AM28" s="11"/>
       <c r="AN28" s="11"/>
       <c r="AO28" s="11"/>
-    </row>
-    <row r="29" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP28" s="11"/>
+    </row>
+    <row r="29" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>704</v>
       </c>
@@ -2421,7 +2522,9 @@
       <c r="G29" s="12">
         <v>0</v>
       </c>
-      <c r="H29" s="11"/>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -2455,8 +2558,9 @@
       <c r="AM29" s="11"/>
       <c r="AN29" s="11"/>
       <c r="AO29" s="11"/>
-    </row>
-    <row r="30" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP29" s="11"/>
+    </row>
+    <row r="30" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>705</v>
       </c>
@@ -2478,7 +2582,9 @@
       <c r="G30" s="12">
         <v>0</v>
       </c>
-      <c r="H30" s="11"/>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -2512,8 +2618,9 @@
       <c r="AM30" s="11"/>
       <c r="AN30" s="11"/>
       <c r="AO30" s="11"/>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AP30" s="11"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <v>801</v>
       </c>
@@ -2533,8 +2640,11 @@
       <c r="G31" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="H31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>901</v>
       </c>
@@ -2554,8 +2664,11 @@
       <c r="G32" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <v>1001</v>
       </c>
@@ -2575,8 +2688,11 @@
       <c r="G33" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <v>1101</v>
       </c>
@@ -2596,8 +2712,11 @@
       <c r="G34" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <v>1201</v>
       </c>
@@ -2619,8 +2738,11 @@
       <c r="G35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>1301</v>
       </c>
@@ -2642,8 +2764,11 @@
       <c r="G36" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <v>1401</v>
       </c>
@@ -2665,8 +2790,11 @@
       <c r="G37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <v>1501</v>
       </c>
@@ -2688,8 +2816,11 @@
       <c r="G38" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <v>1502</v>
       </c>
@@ -2711,8 +2842,11 @@
       <c r="G39" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <v>1601</v>
       </c>
@@ -2732,8 +2866,11 @@
       <c r="G40" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <v>1701</v>
       </c>
@@ -2755,8 +2892,11 @@
       <c r="G41" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <v>1801</v>
       </c>
@@ -2778,8 +2918,11 @@
       <c r="G42" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <v>1901</v>
       </c>
@@ -2801,8 +2944,11 @@
       <c r="G43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <v>2001</v>
       </c>
@@ -2822,6 +2968,9 @@
         <v>92</v>
       </c>
       <c r="G44" s="15">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15">
         <v>0</v>
       </c>
     </row>

--- a/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6B3DCF-C93B-4521-8DE0-0C3B12D11861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EABC869-0FEA-4640-BF3A-3DB4086F9F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,7 +977,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">

--- a/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
+++ b/web/PirateCardsLayaGame/design/Config/Common/Card.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zengfeng\githubs\ihaiu.blog\web\PirateCardsLayaGame\design\Config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nisakzhang\Desktop\小游戏\配置表\等级经验配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EABC869-0FEA-4640-BF3A-3DB4086F9F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3834AAE-BCC5-4E80-B449-1B7A31476092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -977,22 +977,22 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="24.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="2" customWidth="1"/>
+    <col min="7" max="8" width="24.5" style="1" customWidth="1"/>
     <col min="9" max="42" width="9" style="11"/>
     <col min="43" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>101</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="AO5" s="11"/>
       <c r="AP5" s="11"/>
     </row>
-    <row r="6" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>102</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="12">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="12">
         <v>0</v>
@@ -1216,7 +1216,7 @@
       <c r="AO6" s="11"/>
       <c r="AP6" s="11"/>
     </row>
-    <row r="7" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>103</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="12">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="H7" s="12">
         <v>0</v>
@@ -1276,7 +1276,7 @@
       <c r="AO7" s="11"/>
       <c r="AP7" s="11"/>
     </row>
-    <row r="8" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>104</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="12">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="H8" s="12">
         <v>0</v>
@@ -1336,7 +1336,7 @@
       <c r="AO8" s="11"/>
       <c r="AP8" s="11"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>201</v>
       </c>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>301</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="AO10" s="11"/>
       <c r="AP10" s="11"/>
     </row>
-    <row r="11" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>302</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="AO11" s="11"/>
       <c r="AP11" s="11"/>
     </row>
-    <row r="12" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>303</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="AO12" s="11"/>
       <c r="AP12" s="11"/>
     </row>
-    <row r="13" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>304</v>
       </c>
@@ -1600,7 +1600,7 @@
       <c r="AO13" s="11"/>
       <c r="AP13" s="11"/>
     </row>
-    <row r="14" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>305</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="AO14" s="11"/>
       <c r="AP14" s="11"/>
     </row>
-    <row r="15" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>306</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="AO15" s="11"/>
       <c r="AP15" s="11"/>
     </row>
-    <row r="16" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>307</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="AO16" s="11"/>
       <c r="AP16" s="11"/>
     </row>
-    <row r="17" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>308</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="AO17" s="11"/>
       <c r="AP17" s="11"/>
     </row>
-    <row r="18" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>309</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="AO18" s="11"/>
       <c r="AP18" s="11"/>
     </row>
-    <row r="19" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>401</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="AO19" s="11"/>
       <c r="AP19" s="11"/>
     </row>
-    <row r="20" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>402</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="AO20" s="11"/>
       <c r="AP20" s="11"/>
     </row>
-    <row r="21" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>403</v>
       </c>
@@ -2080,7 +2080,7 @@
       <c r="AO21" s="11"/>
       <c r="AP21" s="11"/>
     </row>
-    <row r="22" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>501</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="AO22" s="11"/>
       <c r="AP22" s="11"/>
     </row>
-    <row r="23" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>502</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="AO23" s="11"/>
       <c r="AP23" s="11"/>
     </row>
-    <row r="24" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>601</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="AO24" s="11"/>
       <c r="AP24" s="11"/>
     </row>
-    <row r="25" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>602</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="AO25" s="11"/>
       <c r="AP25" s="11"/>
     </row>
-    <row r="26" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>701</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="AO26" s="11"/>
       <c r="AP26" s="11"/>
     </row>
-    <row r="27" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>702</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="AO27" s="11"/>
       <c r="AP27" s="11"/>
     </row>
-    <row r="28" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>703</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="AO28" s="11"/>
       <c r="AP28" s="11"/>
     </row>
-    <row r="29" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>704</v>
       </c>
@@ -2560,7 +2560,7 @@
       <c r="AO29" s="11"/>
       <c r="AP29" s="11"/>
     </row>
-    <row r="30" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>705</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="AO30" s="11"/>
       <c r="AP30" s="11"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>801</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>901</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>1001</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>1101</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>1201</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>1301</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>1401</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>1501</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>1502</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>1601</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>1701</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>1801</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>1901</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>2001</v>
       </c>
